--- a/DemoWebShop/src/main/resources/DemoWebShopProject.xlsx
+++ b/DemoWebShop/src/main/resources/DemoWebShopProject.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prema\eclipse-workspace\Java\DemoWebShop\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prema\git\repository\DemoWebShop\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E7E50C-D4B9-4429-9CEE-B3579F88067F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31392922-7E25-4DE2-AA19-117F547DD15A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{8F3999D6-0FBE-4D36-AEC6-2F072AA8D335}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8F3999D6-0FBE-4D36-AEC6-2F072AA8D335}"/>
   </bookViews>
   <sheets>
     <sheet name="DWS_TestScenario" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,9 @@
     <sheet name="Login" sheetId="4" r:id="rId5"/>
     <sheet name="Home" sheetId="6" r:id="rId6"/>
     <sheet name="Books" sheetId="8" r:id="rId7"/>
-    <sheet name="Shoppingcart" sheetId="5" r:id="rId8"/>
+    <sheet name="Computers" sheetId="10" r:id="rId8"/>
+    <sheet name="Electronics" sheetId="9" r:id="rId9"/>
+    <sheet name="Shoppingcart" sheetId="5" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="107">
   <si>
     <t>ProjectName</t>
   </si>
@@ -337,9 +339,6 @@
     <t>Product should be added in shopping cart.</t>
   </si>
   <si>
-    <t>User should be login successfully.</t>
-  </si>
-  <si>
     <t>DWS_005</t>
   </si>
   <si>
@@ -350,6 +349,92 @@
   </si>
   <si>
     <t>Demo Web Shop. Books</t>
+  </si>
+  <si>
+    <t>DWS_006</t>
+  </si>
+  <si>
+    <t>DWS_007</t>
+  </si>
+  <si>
+    <t>Computers</t>
+  </si>
+  <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>Verify user is able to click on computers link</t>
+  </si>
+  <si>
+    <t>Verify user is able to click on electronics link</t>
+  </si>
+  <si>
+    <t>TC_DWS_006</t>
+  </si>
+  <si>
+    <t>TC_DWS_007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the browser 
+2. Enter the URL 
+3. Click on "Login" link
+4. Enter text in "Email" text filed
+5. Enter text in "Password" text field
+6. Click on "Login" button
+7. Click on "COMPUTERS" link
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the browser 
+2. Enter the URL 
+3. Click on "Login" link
+4. Enter text in "Email" text filed
+5. Enter text in "Password" text field
+6. Click on "Login" button
+7. Click on "ELECTRONICS" link
+</t>
+  </si>
+  <si>
+    <t>Computers page should be displayed.</t>
+  </si>
+  <si>
+    <t>Electronics page should be displayed.</t>
+  </si>
+  <si>
+    <t>Demo Web Shop. Electronics</t>
+  </si>
+  <si>
+    <t>Demo Web Shop. Computers</t>
+  </si>
+  <si>
+    <t>TC_DWS_008</t>
+  </si>
+  <si>
+    <t>logout</t>
+  </si>
+  <si>
+    <t>*URL should be in working condition
+*Check for the internet connection
+*User should have valid login credentials
+*User should be logged in</t>
+  </si>
+  <si>
+    <t>Verify user is able to logout of application</t>
+  </si>
+  <si>
+    <t>1. Open the browser 
+2. Enter the URL 
+3. Click on "Login" link
+4. Enter text in "Email" text filed
+5. Enter text in "Password" text field
+6. Click on "Login" button
+7. Click on "Logout" link</t>
+  </si>
+  <si>
+    <t>User should be logged out successfully.</t>
+  </si>
+  <si>
+    <t>User should be logged in successfully.</t>
   </si>
 </sst>
 </file>
@@ -1221,10 +1306,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B273D141-2CC8-4D86-9A32-93C9D30F5454}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A9" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1367,7 +1452,7 @@
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B14" s="24" t="s">
         <v>75</v>
@@ -1377,30 +1462,82 @@
       </c>
       <c r="D14" s="26"/>
     </row>
-    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="27" t="s">
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="26"/>
+    </row>
+    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="26"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="28"/>
-    </row>
-    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="29" t="s">
+      <c r="B17" s="28"/>
+    </row>
+    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="30"/>
+      <c r="B18" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7755BDBB-C4C6-4769-AFBA-3317F8DAB47F}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE2B6BE8-23E4-4EAA-82BC-4772FE9D14E1}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView topLeftCell="D10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="F6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1552,12 +1689,12 @@
         <v>53</v>
       </c>
       <c r="H7" s="41" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="I7" s="41"/>
       <c r="J7" s="41"/>
     </row>
-    <row r="8" spans="1:10" ht="109.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="106.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>54</v>
       </c>
@@ -1565,27 +1702,27 @@
         <v>16</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="36" t="s">
-        <v>42</v>
+        <v>102</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>103</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="G8" s="43" t="s">
         <v>53</v>
       </c>
       <c r="H8" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-    </row>
-    <row r="9" spans="1:10" ht="160.19999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+    </row>
+    <row r="9" spans="1:10" ht="109.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>56</v>
       </c>
@@ -1598,17 +1735,17 @@
       <c r="D9" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>57</v>
+      <c r="E9" s="36" t="s">
+        <v>42</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G9" s="43" t="s">
         <v>53</v>
       </c>
       <c r="H9" s="41" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I9" s="42"/>
       <c r="J9" s="42"/>
@@ -1618,46 +1755,125 @@
         <v>73</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="D10" s="24" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="G10" s="43" t="s">
         <v>53</v>
       </c>
       <c r="H10" s="41" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I10" s="42"/>
       <c r="J10" s="42"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H11" s="42"/>
+    <row r="11" spans="1:10" ht="160.19999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="41" t="s">
+        <v>78</v>
+      </c>
       <c r="I11" s="42"/>
       <c r="J11" s="42"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="45" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="45" t="s">
-        <v>44</v>
-      </c>
+    <row r="12" spans="1:10" ht="160.19999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="G12" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+    </row>
+    <row r="13" spans="1:10" ht="106.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="45" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1752,7 +1968,7 @@
         <v>67</v>
       </c>
       <c r="F2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1799,7 +2015,7 @@
         <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1843,8 +2059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B19F033-B4A3-47DD-A8FA-F2A2373992C1}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1859,7 +2075,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1868,30 +2084,57 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7755BDBB-C4C6-4769-AFBA-3317F8DAB47F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56580526-87E0-4993-8CDE-5CA40801E9DA}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
-        <v>70</v>
+      <c r="A2" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{288441D3-8AB3-41B6-8EBC-F52843B67B43}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="33.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>